--- a/test/resources/requirements/testdata-v7-bog.xlsx
+++ b/test/resources/requirements/testdata-v7-bog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PolicyRecords" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,8 +21,8 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">GhostProportionsAggregate!$A$1:$G$2</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">PolicyRecords!$A$1:$O$91</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">SupplyRecords!$A$1:$Q$2</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">DemandRecords!$A$1:$Q$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">SupplyRecords!$A$1:$Q$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="248">
   <si>
     <t xml:space="preserve">TimeStamp</t>
   </si>
@@ -667,6 +667,9 @@
   </si>
   <si>
     <t xml:space="preserve">DemandRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">01205K000</t>
@@ -781,11 +784,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-409]M/D/YYYY\ H:MM"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="[$-409]M/D/YYYY"/>
+    <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -902,7 +906,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -923,16 +927,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -948,14 +944,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -971,6 +971,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -980,6 +984,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1064,10 +1072,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1081,13 +1085,13 @@
       <selection pane="bottomLeft" activeCell="H30" activeCellId="0" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.43"/>
@@ -1095,7 +1099,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="24.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="33.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15"/>
   </cols>
@@ -5199,10 +5203,10 @@
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.71"/>
@@ -5474,7 +5478,7 @@
       <c r="C16" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="0" t="s">
@@ -5516,338 +5520,338 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="5"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F36" s="5"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5871,7 +5875,7 @@
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5998,7 +6002,7 @@
       <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.57"/>
@@ -6064,34 +6068,34 @@
       <c r="A8" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -6099,7 +6103,7 @@
       <c r="A12" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6107,7 +6111,7 @@
       <c r="A13" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6115,7 +6119,7 @@
       <c r="A14" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6123,7 +6127,7 @@
       <c r="A15" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6131,7 +6135,7 @@
       <c r="A16" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -6139,7 +6143,7 @@
       <c r="A17" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6147,13 +6151,13 @@
       <c r="A18" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="12" t="n">
+      <c r="B19" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6162,7 +6166,7 @@
       <c r="A20" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6170,7 +6174,7 @@
       <c r="A21" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6178,7 +6182,7 @@
       <c r="A22" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6200,76 +6204,76 @@
   </sheetPr>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="11.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="16" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="B2" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="C2" s="17" t="n">
         <v>1</v>
@@ -6290,40 +6294,39 @@
         <v>45</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O2" s="17" t="n">
         <v>10</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="16" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="B3" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="C3" s="17" t="n">
         <v>1</v>
@@ -6344,28 +6347,28 @@
         <v>45</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O3" s="17" t="n">
         <v>10</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>1</v>
@@ -6389,20 +6392,21 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="11.59"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>195</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -6412,7 +6416,7 @@
         <v>201</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>208</v>
@@ -6421,55 +6425,54 @@
         <v>160</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>139</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>229</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>19</v>
@@ -6496,18 +6499,17 @@
         <v>19</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P2" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q2"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6515,7 +6517,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6530,7 +6531,7 @@
       <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6540,16 +6541,16 @@
         <v>201</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -6574,7 +6575,7 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="51.29"/>
   </cols>
@@ -6593,25 +6594,25 @@
         <v>189</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -6647,7 +6648,7 @@
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6657,16 +6658,16 @@
         <v>195</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>164</v>
@@ -6674,20 +6675,20 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
